--- a/biology/Botanique/Parc_public_Humboldthain/Parc_public_Humboldthain.xlsx
+++ b/biology/Botanique/Parc_public_Humboldthain/Parc_public_Humboldthain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc public Humboldthain (Volkspark Humboldthain) est un parc public à Berlin-Gesundbrunnen.
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein de l'arrondissement de Mitte, le parc est entouré par la Brunnenstraße (de) à l'est, la Gustav-Meyer-Allee au sud, la Hussitenstraße à l'ouest, par la Hochstraße et en parallèle par la S-Bahn au nord.
 La gare de Berlin Humboldthain située à proximité procure un accès privilégié au jardin public. Elle est desservie par les lignes S1, S2, S25 et S26.
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction du jardin public commence le 14 septembre 1869 pour le centième anniversaire d'Alexander von Humboldt et est finie en 1876.
 .
